--- a/configtable/skill_select.xlsx
+++ b/configtable/skill_select.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
